--- a/Diccionario_Datos.xlsx
+++ b/Diccionario_Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natus\Documents\Trabajo\PEDRO_PEREZ\ICFES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0B6CE6-E178-4720-B4AD-7539F3047EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8C66C-8862-4114-80F0-4536DAB39D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A900BF01-ED64-4108-9972-67217E882875}"/>
   </bookViews>
@@ -3018,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8371BCF-EC0A-4CEE-98EB-26C136E7CF93}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
